--- a/Settings/Base/049_BaseRegionClassification.xlsx
+++ b/Settings/Base/049_BaseRegionClassification.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hwieland\Github workspace\PIOLab\ConcordanceLibrary\LabelsAndCodes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hwieland\Github workspace\PIOLab\Settings\Base\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="107">
   <si>
     <t>Code</t>
   </si>
@@ -327,6 +327,24 @@
   </si>
   <si>
     <t>Abbrev</t>
+  </si>
+  <si>
+    <t>Europe</t>
+  </si>
+  <si>
+    <t>Middle East</t>
+  </si>
+  <si>
+    <t>America</t>
+  </si>
+  <si>
+    <t>Asia and Pacific</t>
+  </si>
+  <si>
+    <t>Africa</t>
+  </si>
+  <si>
+    <t>Region</t>
   </si>
 </sst>
 </file>
@@ -663,10 +681,10 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:C50"/>
+  <dimension ref="A1:D50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -674,7 +692,7 @@
     <col min="1" max="1" width="5.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -684,8 +702,11 @@
       <c r="C1" s="1" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D1" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -695,8 +716,11 @@
       <c r="C2" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D2" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -706,8 +730,11 @@
       <c r="C3" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D3" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -717,8 +744,11 @@
       <c r="C4" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D4" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -728,8 +758,11 @@
       <c r="C5" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D5" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -739,8 +772,11 @@
       <c r="C6" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D6" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -750,8 +786,11 @@
       <c r="C7" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D7" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -761,8 +800,11 @@
       <c r="C8" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D8" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -772,8 +814,11 @@
       <c r="C9" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D9" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -783,8 +828,11 @@
       <c r="C10" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D10" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -794,8 +842,11 @@
       <c r="C11" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D11" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -805,8 +856,11 @@
       <c r="C12" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D12" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -816,8 +870,11 @@
       <c r="C13" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D13" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -827,8 +884,11 @@
       <c r="C14" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D14" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -838,8 +898,11 @@
       <c r="C15" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D15" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
@@ -849,8 +912,11 @@
       <c r="C16" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D16" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
@@ -860,8 +926,11 @@
       <c r="C17" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D17" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
@@ -871,8 +940,11 @@
       <c r="C18" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D18" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
@@ -882,8 +954,11 @@
       <c r="C19" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D19" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
@@ -893,8 +968,11 @@
       <c r="C20" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D20" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
@@ -904,8 +982,11 @@
       <c r="C21" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D21" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
@@ -915,8 +996,11 @@
       <c r="C22" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D22" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
@@ -926,8 +1010,11 @@
       <c r="C23" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D23" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
@@ -937,8 +1024,11 @@
       <c r="C24" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D24" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
@@ -948,8 +1038,11 @@
       <c r="C25" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D25" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>25</v>
       </c>
@@ -959,8 +1052,11 @@
       <c r="C26" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D26" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>26</v>
       </c>
@@ -970,8 +1066,11 @@
       <c r="C27" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D27" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>27</v>
       </c>
@@ -981,8 +1080,11 @@
       <c r="C28" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D28" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>28</v>
       </c>
@@ -992,8 +1094,11 @@
       <c r="C29" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D29" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1003,8 +1108,11 @@
       <c r="C30" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D30" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1014,8 +1122,11 @@
       <c r="C31" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D31" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1025,8 +1136,11 @@
       <c r="C32" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D32" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1036,8 +1150,11 @@
       <c r="C33" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D33" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1047,8 +1164,11 @@
       <c r="C34" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D34" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1058,8 +1178,11 @@
       <c r="C35" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D35" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1069,8 +1192,11 @@
       <c r="C36" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D36" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1080,8 +1206,11 @@
       <c r="C37" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D37" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1091,8 +1220,11 @@
       <c r="C38" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D38" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1102,8 +1234,11 @@
       <c r="C39" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D39" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1113,8 +1248,11 @@
       <c r="C40" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D40" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1124,8 +1262,11 @@
       <c r="C41" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D41" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1135,8 +1276,11 @@
       <c r="C42" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D42" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1146,8 +1290,11 @@
       <c r="C43" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D43" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>43</v>
       </c>
@@ -1157,8 +1304,11 @@
       <c r="C44" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D44" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>44</v>
       </c>
@@ -1168,8 +1318,11 @@
       <c r="C45" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D45" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>45</v>
       </c>
@@ -1179,8 +1332,11 @@
       <c r="C46" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D46" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>46</v>
       </c>
@@ -1190,8 +1346,11 @@
       <c r="C47" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D47" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>47</v>
       </c>
@@ -1201,8 +1360,11 @@
       <c r="C48" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D48" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>48</v>
       </c>
@@ -1212,8 +1374,11 @@
       <c r="C49" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D49" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>49</v>
       </c>
@@ -1222,6 +1387,9 @@
       </c>
       <c r="C50" t="s">
         <v>99</v>
+      </c>
+      <c r="D50" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
